--- a/data/trans_bre/P1805-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1805-Estudios-trans_bre.xlsx
@@ -541,7 +541,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">

--- a/data/trans_bre/P1805-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1805-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,32 +540,56 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -591,12 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>2,16</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>102,36%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>21,02%</t>
         </is>
       </c>
     </row>
@@ -619,12 +678,32 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 3,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 2,08</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12,22; 286,53</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-36,47; 124,69</t>
         </is>
       </c>
     </row>
@@ -651,12 +730,32 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>1,92</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>108,84%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12,92%</t>
         </is>
       </c>
     </row>
@@ -679,12 +778,32 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,95; 3,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 1,68</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>40,37; 215,01</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-23,03; 67,31</t>
         </is>
       </c>
     </row>
@@ -711,12 +830,32 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>1,19</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2,38</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>77,54%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>58,21%</t>
         </is>
       </c>
     </row>
@@ -739,12 +878,32 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 3,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,48; 4,67</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-29,87; 378,47</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-11,92; 158,3</t>
         </is>
       </c>
     </row>
@@ -771,12 +930,32 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>1,9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>105,05%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>22,96%</t>
         </is>
       </c>
     </row>
@@ -799,12 +978,32 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,15; 2,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 1,78</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>52,59; 189,37</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-6,88; 62,45</t>
         </is>
       </c>
     </row>
@@ -818,10 +1017,10 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P1805-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1805-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>20,99%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 2,08</t>
+          <t>-1,5; 2,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-36,47; 124,69</t>
+          <t>-37,46; 123,12</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>14,01%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,68</t>
+          <t>-1,2; 1,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 67,31</t>
+          <t>-29,81; 84,96</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>58,21%</t>
+          <t>54,12%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 4,67</t>
+          <t>-0,72; 4,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 158,3</t>
+          <t>-15,47; 150,55</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,96%</t>
+          <t>23,38%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 1,78</t>
+          <t>-0,38; 1,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 62,45</t>
+          <t>-10,46; 70,28</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P1805-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1805-Estudios-trans_bre.xlsx
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 3,86</t>
+          <t>0,34; 4,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 2,04</t>
+          <t>-1,32; 2,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,22; 286,53</t>
+          <t>9,54; 264,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-37,46; 123,12</t>
+          <t>-36,58; 133,31</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,05</t>
+          <t>0,93; 3,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 1,8</t>
+          <t>-0,98; 1,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>40,37; 215,01</t>
+          <t>37,91; 211,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-29,81; 84,96</t>
+          <t>-24,31; 86,75</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,08</t>
+          <t>-0,54; 2,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 4,47</t>
+          <t>-0,4; 4,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-29,87; 378,47</t>
+          <t>-35,36; 348,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,47; 150,55</t>
+          <t>-10,35; 162,96</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,81</t>
+          <t>1,06; 2,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 1,83</t>
+          <t>-0,28; 1,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>52,59; 189,37</t>
+          <t>50,91; 178,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 70,28</t>
+          <t>-7,37; 69,86</t>
         </is>
       </c>
     </row>
